--- a/pasajeros/bd_pasajeros.xlsx
+++ b/pasajeros/bd_pasajeros.xlsx
@@ -534,7 +534,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/pasajeros/bd_pasajeros.xlsx
+++ b/pasajeros/bd_pasajeros.xlsx
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.64</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="3">
@@ -517,11 +517,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>poca</t>
+          <t>mediana</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.63</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="4">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.16</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="5">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.11</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.32</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="7">
@@ -625,11 +625,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>mucha</t>
+          <t>mediana</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.61</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="8">
@@ -652,11 +652,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>poca</t>
+          <t>mucha</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.99</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="9">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.18</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="10">
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.23</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="11">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.26</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="12">
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.71</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="13">
@@ -787,11 +787,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>poca</t>
+          <t>mediana</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.86</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="14">
@@ -814,11 +814,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>poca</t>
+          <t>mediana</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.6</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="15">
@@ -841,11 +841,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>poca</t>
+          <t>mediana</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.17</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="16">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="17">
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.97</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.58</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="19">
@@ -949,11 +949,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>mucha</t>
+          <t>mediana</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.04</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="20">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="21">
@@ -1003,11 +1003,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>poca</t>
+          <t>mucha</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="22">
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.35</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="23">
@@ -1057,11 +1057,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>poca</t>
+          <t>mucha</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.22</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="24">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.37</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="25">
@@ -1111,11 +1111,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>poca</t>
+          <t>mucha</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="26">
@@ -1138,11 +1138,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>poca</t>
+          <t>mucha</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.3</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="27">
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.08</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="28">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.63</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="29">
@@ -1219,11 +1219,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>poca</t>
+          <t>mediana</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1246,11 +1246,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>poca</t>
+          <t>mediana</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.39</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="31">
@@ -1277,7 +1277,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.99</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="32">
@@ -1300,11 +1300,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>poca</t>
+          <t>mediana</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.9</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="33">
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.08</v>
+        <v>0.41</v>
       </c>
     </row>
   </sheetData>

--- a/pasajeros/bd_pasajeros.xlsx
+++ b/pasajeros/bd_pasajeros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8e71343ccfff22e/Desktop/7mo 2024/Electivo Python/Tarea 2/Proyecto_INFO147/pasajeros/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_23F921EDAC930E15512D4C963DCC982C6F60B115" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E563D569-D30A-4767-8333-4E47C39BDB62}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_23F921EDAC930E15512D4C963DCC982C6F60B115" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FE69B1B-40B5-41EC-99A1-24A32BABA45E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
   <si>
     <t>IMAGEN_PASAJERO</t>
   </si>
@@ -137,6 +137,30 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Perú</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Estados Unidos</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>España</t>
   </si>
 </sst>
 </file>
@@ -221,10 +245,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,6 +571,9 @@
       <c r="C2">
         <v>30</v>
       </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
       <c r="E2">
         <v>70.2</v>
       </c>
@@ -565,6 +588,9 @@
       <c r="C3">
         <v>25</v>
       </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
       <c r="E3">
         <v>61.8</v>
       </c>
@@ -579,6 +605,9 @@
       <c r="C4">
         <v>24</v>
       </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
       <c r="E4">
         <v>62.2</v>
       </c>
@@ -593,6 +622,9 @@
       <c r="C5">
         <v>21</v>
       </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
       <c r="E5">
         <v>68.7</v>
       </c>
@@ -607,6 +639,9 @@
       <c r="C6">
         <v>26</v>
       </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
       <c r="E6">
         <v>71.7</v>
       </c>
@@ -621,6 +656,9 @@
       <c r="C7">
         <v>28</v>
       </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
       <c r="E7">
         <v>65.099999999999994</v>
       </c>
@@ -635,6 +673,9 @@
       <c r="C8">
         <v>30</v>
       </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
       <c r="E8">
         <v>64.599999999999994</v>
       </c>
@@ -649,6 +690,9 @@
       <c r="C9">
         <v>40</v>
       </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
       <c r="E9">
         <v>59.9</v>
       </c>
@@ -663,6 +707,9 @@
       <c r="C10">
         <v>30</v>
       </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
       <c r="E10">
         <v>58.7</v>
       </c>
@@ -677,6 +724,9 @@
       <c r="C11">
         <v>29</v>
       </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
       <c r="E11">
         <v>57.1</v>
       </c>
@@ -691,6 +741,9 @@
       <c r="C12">
         <v>28</v>
       </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
       <c r="E12">
         <v>57.2</v>
       </c>
@@ -705,6 +758,9 @@
       <c r="C13">
         <v>25</v>
       </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
       <c r="E13">
         <v>70.5</v>
       </c>
@@ -719,6 +775,9 @@
       <c r="C14">
         <v>15</v>
       </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
       <c r="E14">
         <v>55.1</v>
       </c>
@@ -733,6 +792,9 @@
       <c r="C15">
         <v>12</v>
       </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
       <c r="E15">
         <v>53.9</v>
       </c>
@@ -747,6 +809,9 @@
       <c r="C16">
         <v>36</v>
       </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
       <c r="E16">
         <v>76.099999999999994</v>
       </c>
@@ -761,6 +826,9 @@
       <c r="C17">
         <v>60</v>
       </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
       <c r="E17">
         <v>77.400000000000006</v>
       </c>
@@ -775,6 +843,9 @@
       <c r="C18">
         <v>44</v>
       </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
       <c r="E18">
         <v>76.3</v>
       </c>
@@ -789,6 +860,9 @@
       <c r="C19">
         <v>39</v>
       </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
       <c r="E19">
         <v>77.2</v>
       </c>
@@ -803,6 +877,9 @@
       <c r="C20">
         <v>43</v>
       </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
       <c r="E20">
         <v>75.099999999999994</v>
       </c>
@@ -817,6 +894,9 @@
       <c r="C21">
         <v>31</v>
       </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
       <c r="E21">
         <v>60.1</v>
       </c>
@@ -831,6 +911,9 @@
       <c r="C22">
         <v>19</v>
       </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
       <c r="E22">
         <v>63.8</v>
       </c>
@@ -845,6 +928,9 @@
       <c r="C23">
         <v>21</v>
       </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
       <c r="E23">
         <v>62.7</v>
       </c>
@@ -859,6 +945,9 @@
       <c r="C24">
         <v>38</v>
       </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
       <c r="E24">
         <v>80.099999999999994</v>
       </c>
@@ -873,6 +962,9 @@
       <c r="C25">
         <v>22</v>
       </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
       <c r="E25">
         <v>64.099999999999994</v>
       </c>
@@ -887,6 +979,9 @@
       <c r="C26">
         <v>25</v>
       </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
       <c r="E26">
         <v>64.900000000000006</v>
       </c>
@@ -901,6 +996,9 @@
       <c r="C27">
         <v>27</v>
       </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
       <c r="E27">
         <v>64.2</v>
       </c>
@@ -915,6 +1013,9 @@
       <c r="C28">
         <v>28</v>
       </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
       <c r="E28">
         <v>69.5</v>
       </c>
@@ -929,6 +1030,9 @@
       <c r="C29">
         <v>29</v>
       </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
       <c r="E29">
         <v>67.8</v>
       </c>
@@ -943,6 +1047,9 @@
       <c r="C30">
         <v>31</v>
       </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
       <c r="E30">
         <v>67.7</v>
       </c>
@@ -957,6 +1064,9 @@
       <c r="C31">
         <v>32</v>
       </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
       <c r="E31">
         <v>68.900000000000006</v>
       </c>
@@ -971,6 +1081,9 @@
       <c r="C32">
         <v>29</v>
       </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
       <c r="E32">
         <v>71.400000000000006</v>
       </c>
@@ -984,6 +1097,9 @@
       </c>
       <c r="C33">
         <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
       </c>
       <c r="E33">
         <v>72.400000000000006</v>
